--- a/NRI_STLF_Data/WeatherData/T_zahedan/T_zahedan95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_zahedan/T_zahedan95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_zahedan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_zahedan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -212,12 +212,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -551,13 +551,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -631,7 +631,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -705,7 +705,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -788,7 +788,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -865,7 +865,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -942,7 +942,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12776,8 +12776,65 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>33</v>
+      </c>
+      <c r="G161">
+        <v>23</v>
+      </c>
+      <c r="H161">
+        <v>14</v>
+      </c>
+      <c r="I161">
+        <v>-5</v>
+      </c>
+      <c r="J161">
+        <v>-7</v>
+      </c>
+      <c r="K161">
+        <v>-9</v>
+      </c>
+      <c r="L161">
+        <v>20</v>
+      </c>
+      <c r="M161">
+        <v>10</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1018</v>
+      </c>
+      <c r="P161">
+        <v>1015</v>
+      </c>
+      <c r="Q161">
+        <v>1004</v>
+      </c>
+      <c r="R161">
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <v>12</v>
+      </c>
+      <c r="T161">
+        <v>11</v>
+      </c>
+      <c r="U161">
+        <v>23</v>
+      </c>
+      <c r="V161">
+        <v>8</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12793,8 +12850,65 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>35</v>
+      </c>
+      <c r="G162">
+        <v>24</v>
+      </c>
+      <c r="H162">
+        <v>13</v>
+      </c>
+      <c r="I162">
+        <v>-7</v>
+      </c>
+      <c r="J162">
+        <v>-8</v>
+      </c>
+      <c r="K162">
+        <v>-11</v>
+      </c>
+      <c r="L162">
+        <v>18</v>
+      </c>
+      <c r="M162">
+        <v>9</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <v>1017</v>
+      </c>
+      <c r="P162">
+        <v>1015</v>
+      </c>
+      <c r="Q162">
+        <v>1004</v>
+      </c>
+      <c r="R162">
+        <v>19</v>
+      </c>
+      <c r="S162">
+        <v>16</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>23</v>
+      </c>
+      <c r="V162">
+        <v>6</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12810,8 +12924,65 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>34</v>
+      </c>
+      <c r="G163">
+        <v>24</v>
+      </c>
+      <c r="H163">
+        <v>13</v>
+      </c>
+      <c r="I163">
+        <v>-5</v>
+      </c>
+      <c r="J163">
+        <v>-7</v>
+      </c>
+      <c r="K163">
+        <v>-11</v>
+      </c>
+      <c r="L163">
+        <v>18</v>
+      </c>
+      <c r="M163">
+        <v>10</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <v>1017</v>
+      </c>
+      <c r="P163">
+        <v>1013</v>
+      </c>
+      <c r="Q163">
+        <v>1003</v>
+      </c>
+      <c r="R163">
+        <v>19</v>
+      </c>
+      <c r="S163">
+        <v>12</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>26</v>
+      </c>
+      <c r="V163">
+        <v>6</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -12827,8 +12998,65 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164">
+        <v>24</v>
+      </c>
+      <c r="H164">
+        <v>15</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>-2</v>
+      </c>
+      <c r="K164">
+        <v>-7</v>
+      </c>
+      <c r="L164">
+        <v>23</v>
+      </c>
+      <c r="M164">
+        <v>13</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164">
+        <v>1015</v>
+      </c>
+      <c r="P164">
+        <v>1012</v>
+      </c>
+      <c r="Q164">
+        <v>1002</v>
+      </c>
+      <c r="R164">
+        <v>14</v>
+      </c>
+      <c r="S164">
+        <v>8</v>
+      </c>
+      <c r="T164">
+        <v>4</v>
+      </c>
+      <c r="U164">
+        <v>34</v>
+      </c>
+      <c r="V164">
+        <v>18</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -12844,8 +13072,65 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>32</v>
+      </c>
+      <c r="G165">
+        <v>26</v>
+      </c>
+      <c r="H165">
+        <v>20</v>
+      </c>
+      <c r="I165">
+        <v>-1</v>
+      </c>
+      <c r="J165">
+        <v>-2</v>
+      </c>
+      <c r="K165">
+        <v>-4</v>
+      </c>
+      <c r="L165">
+        <v>23</v>
+      </c>
+      <c r="M165">
+        <v>13</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165">
+        <v>1014</v>
+      </c>
+      <c r="P165">
+        <v>1011</v>
+      </c>
+      <c r="Q165">
+        <v>1000</v>
+      </c>
+      <c r="R165">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>29</v>
+      </c>
+      <c r="V165">
+        <v>14</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -12861,8 +13146,65 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166">
+        <v>24</v>
+      </c>
+      <c r="H166">
+        <v>15</v>
+      </c>
+      <c r="I166">
+        <v>-1</v>
+      </c>
+      <c r="J166">
+        <v>-3</v>
+      </c>
+      <c r="K166">
+        <v>-5</v>
+      </c>
+      <c r="L166">
+        <v>27</v>
+      </c>
+      <c r="M166">
+        <v>13</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>1014</v>
+      </c>
+      <c r="P166">
+        <v>1010</v>
+      </c>
+      <c r="Q166">
+        <v>1000</v>
+      </c>
+      <c r="R166">
+        <v>11</v>
+      </c>
+      <c r="S166">
+        <v>11</v>
+      </c>
+      <c r="T166">
+        <v>11</v>
+      </c>
+      <c r="U166">
+        <v>29</v>
+      </c>
+      <c r="V166">
+        <v>13</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -12878,8 +13220,65 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167">
+        <v>24</v>
+      </c>
+      <c r="H167">
+        <v>15</v>
+      </c>
+      <c r="I167">
+        <v>-1</v>
+      </c>
+      <c r="J167">
+        <v>-4</v>
+      </c>
+      <c r="K167">
+        <v>-8</v>
+      </c>
+      <c r="L167">
+        <v>25</v>
+      </c>
+      <c r="M167">
+        <v>12</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
+        <v>1014</v>
+      </c>
+      <c r="P167">
+        <v>1011</v>
+      </c>
+      <c r="Q167">
+        <v>1001</v>
+      </c>
+      <c r="R167">
+        <v>14</v>
+      </c>
+      <c r="S167">
+        <v>13</v>
+      </c>
+      <c r="T167">
+        <v>11</v>
+      </c>
+      <c r="U167">
+        <v>26</v>
+      </c>
+      <c r="V167">
+        <v>11</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -12895,8 +13294,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168">
+        <v>24</v>
+      </c>
+      <c r="H168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -12912,8 +13320,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169">
+        <v>26</v>
+      </c>
+      <c r="H169">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -12929,8 +13346,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170">
+        <v>26</v>
+      </c>
+      <c r="H170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -12946,8 +13372,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>35</v>
+      </c>
+      <c r="G171">
+        <v>26</v>
+      </c>
+      <c r="H171">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -12963,8 +13398,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172">
+        <v>26</v>
+      </c>
+      <c r="H172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -12981,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -12998,7 +13442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13015,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13032,7 +13476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13049,7 +13493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13066,7 +13510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13083,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13100,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13117,7 +13561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13134,7 +13578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13151,7 +13595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13168,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13185,7 +13629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13202,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13219,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13236,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13253,7 +13697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13270,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13287,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13304,7 +13748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13321,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13338,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13355,7 +13799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13372,7 +13816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13389,7 +13833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13406,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13423,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13440,7 +13884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13457,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13474,7 +13918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13491,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13508,7 +13952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13525,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13542,7 +13986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13559,7 +14003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13576,7 +14020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13593,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13610,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13627,7 +14071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13644,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13661,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13678,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13695,7 +14139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13712,7 +14156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13729,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13746,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13763,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13780,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13797,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13814,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -13831,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -13848,7 +14292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -13865,7 +14309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -13882,7 +14326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -13899,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -13916,7 +14360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -13933,7 +14377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -13950,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -13967,7 +14411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -13984,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14001,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14018,7 +14462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14035,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14052,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14069,7 +14513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14086,7 +14530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14103,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14120,7 +14564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14137,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14154,7 +14598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14171,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14188,7 +14632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14205,7 +14649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14222,7 +14666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14239,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14256,7 +14700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14273,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14290,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14307,7 +14751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14324,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14341,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14358,7 +14802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14375,7 +14819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14392,7 +14836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14409,7 +14853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14426,7 +14870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14443,7 +14887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14460,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14477,7 +14921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14494,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14511,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14528,7 +14972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14545,7 +14989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14562,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14579,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14596,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14613,7 +15057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14630,7 +15074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14647,7 +15091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14664,7 +15108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14681,7 +15125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14698,7 +15142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14715,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14732,7 +15176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14749,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14766,7 +15210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14783,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14800,7 +15244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14817,7 +15261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -14834,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -14851,7 +15295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -14868,7 +15312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -14885,7 +15329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -14902,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -14919,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -14936,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -14953,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -14970,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -14987,7 +15431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15004,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15021,7 +15465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15038,7 +15482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15055,7 +15499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15072,7 +15516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15089,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15106,7 +15550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15123,7 +15567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15140,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15157,7 +15601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15174,7 +15618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15191,7 +15635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15208,7 +15652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15225,7 +15669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15242,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15259,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15276,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15293,7 +15737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15310,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15327,7 +15771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15344,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15361,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15378,7 +15822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15395,7 +15839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15412,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15429,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15446,7 +15890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15463,7 +15907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15480,7 +15924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15497,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15514,7 +15958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15531,7 +15975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15548,7 +15992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15565,7 +16009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15582,7 +16026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15599,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15616,7 +16060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15633,7 +16077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15650,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15667,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15684,7 +16128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15701,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15718,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15735,7 +16179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15752,7 +16196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15769,7 +16213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15786,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15803,7 +16247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -15820,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -15837,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -15854,7 +16298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -15871,7 +16315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -15888,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -15905,7 +16349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -15922,7 +16366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -15939,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -15956,7 +16400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -15973,7 +16417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -15990,7 +16434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16007,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16024,7 +16468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16041,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16058,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16075,7 +16519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16092,7 +16536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16109,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16126,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16143,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16160,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16177,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16194,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16211,7 +16655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16228,7 +16672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16245,7 +16689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16273,7 +16717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16285,7 +16729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
